--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2584701.098330111</v>
+        <v>-2587752.342283951</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8656875.781858988</v>
+        <v>8656875.781858994</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>204.9805749804188</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>130.3332871087984</v>
       </c>
       <c r="E2" t="n">
-        <v>28.16963425991389</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>19.25504375147595</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>266.6210949690525</v>
+        <v>56.49576810820454</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>17.09300973225714</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>294.976217613668</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>11.67884460201125</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>169.0167291702126</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>156.291000032127</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>160.8783715448855</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>105.8247259764145</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>234.4970761400735</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.75769145492406</v>
+        <v>74.75769145492451</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1622,10 +1622,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873204</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292569</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851112</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824773</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734096215</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492406</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.9321526700472</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>189.7690253314418</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250843</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534545</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873203</v>
+        <v>294.6077643873204</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292541</v>
+        <v>41.57692977292558</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881755</v>
+        <v>109.1877617881756</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851108</v>
+        <v>89.5968754185111</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247718</v>
+        <v>18.81721868247726</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734093657</v>
+        <v>0.1429098734095362</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414545</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.75769145493037</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004706</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314418</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196992132</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2096,10 +2096,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873203</v>
+        <v>294.6077643873204</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292541</v>
+        <v>41.57692977292558</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881755</v>
+        <v>109.1877617881756</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851108</v>
+        <v>89.5968754185111</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247718</v>
+        <v>18.81721868247726</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734093657</v>
+        <v>0.1429098734095362</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414545</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145493037</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004706</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314418</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>52.38968648844033</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873204</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292567</v>
+        <v>41.57692977292558</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881757</v>
+        <v>109.1877617881756</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
@@ -2415,7 +2415,7 @@
         <v>89.5968754185111</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247729</v>
+        <v>18.81721868247726</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.142909873409593</v>
+        <v>0.1429098734095362</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414546</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C25" t="n">
-        <v>142.962173606588</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D25" t="n">
-        <v>19.19526838335707</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G25" t="n">
-        <v>141.7411607669884</v>
+        <v>141.7411607669885</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>47.30374092881558</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>64.64750517800736</v>
+        <v>64.64750517800741</v>
       </c>
       <c r="S25" t="n">
-        <v>165.484377839402</v>
+        <v>165.4843778394021</v>
       </c>
       <c r="T25" t="n">
         <v>195.2643017841294</v>
       </c>
       <c r="U25" t="n">
-        <v>261.9271907135731</v>
+        <v>261.9271907135732</v>
       </c>
       <c r="V25" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W25" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X25" t="n">
-        <v>201.4250078969973</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>194.300005860055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695538</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T27" t="n">
         <v>188.3046392154443</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.962173606588</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261725</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545293</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308925</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.239490800229</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972043</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969973</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695538</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.962173606588</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261725</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545293</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308914</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.239490800229</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652557</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969973</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695538</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T33" t="n">
         <v>188.3046392154443</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.962173606588</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261725</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308914</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.239490800229</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652578</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096056</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969973</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695538</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T36" t="n">
         <v>188.3046392154443</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.962173606588</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261725</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308914</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.239490800229</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541841</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
         <v>262.2383508445512</v>
@@ -3490,7 +3490,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3664,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,22 +3943,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.3235524161375</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C2" t="n">
-        <v>921.3235524161375</v>
+        <v>339.0587427836571</v>
       </c>
       <c r="D2" t="n">
-        <v>563.057853809387</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2677.699551875317</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2501.522064189488</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2282.88739716155</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2029.125611799642</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1698.062724456071</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1698.062724456071</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.062724456071</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1307.923392480259</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4398,25 +4398,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4492,34 +4492,34 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T4" t="n">
-        <v>323.2572191628418</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
         <v>53.94298182036445</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>823.3126770315976</v>
+        <v>751.6104138473593</v>
       </c>
       <c r="C5" t="n">
-        <v>806.0470106353782</v>
+        <v>751.6104138473593</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>751.6104138473593</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>365.822161249115</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.378275356799</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="X5" t="n">
-        <v>1209.912517095719</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="Y5" t="n">
-        <v>1209.912517095719</v>
+        <v>1138.210253911481</v>
       </c>
     </row>
     <row r="6">
@@ -4641,10 +4641,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
         <v>266.2060027641992</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>716.3321714771301</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>502.0437482952929</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245972</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="U7" t="n">
-        <v>224.6669506791651</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V7" t="n">
-        <v>224.6669506791651</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W7" t="n">
-        <v>224.6669506791651</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1328.4755035807</v>
+        <v>1461.147548391486</v>
       </c>
       <c r="C8" t="n">
-        <v>959.5129866402885</v>
+        <v>1092.185031451074</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>1092.185031451074</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>706.3967788528296</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4799,13 +4799,13 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2303.439508261991</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2049.677722900083</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>1718.614835556512</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W8" t="n">
-        <v>1718.614835556512</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X8" t="n">
-        <v>1718.614835556512</v>
+        <v>1851.286880367297</v>
       </c>
       <c r="Y8" t="n">
-        <v>1328.4755035807</v>
+        <v>1461.147548391486</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4902,28 +4902,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="U10" t="n">
-        <v>290.8087152951862</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="V10" t="n">
-        <v>290.8087152951862</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001581</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L11" t="n">
         <v>1069.293752345675</v>
       </c>
       <c r="M11" t="n">
-        <v>1622.42518767663</v>
+        <v>1622.425187676629</v>
       </c>
       <c r="N11" t="n">
         <v>2602.177459903276</v>
@@ -5084,7 +5084,7 @@
         <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468568</v>
@@ -5118,19 +5118,19 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5139,7 +5139,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5148,22 +5148,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5203,13 +5203,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O13" t="n">
         <v>1646.12566951853</v>
@@ -5224,25 +5224,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U13" t="n">
         <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413803</v>
+        <v>619.8559841413808</v>
       </c>
       <c r="X13" t="n">
-        <v>391.866433243363</v>
+        <v>391.8664332433634</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.0738540998329</v>
+        <v>171.0738540998333</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5264,37 +5264,37 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551616</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001581</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089254</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074204</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972676</v>
       </c>
       <c r="L14" t="n">
-        <v>1069.293752345675</v>
+        <v>1069.293752345677</v>
       </c>
       <c r="M14" t="n">
-        <v>1622.42518767663</v>
+        <v>1622.425187676626</v>
       </c>
       <c r="N14" t="n">
-        <v>2602.177459903276</v>
+        <v>2602.177459903273</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232729</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679676</v>
       </c>
       <c r="Q14" t="n">
         <v>4653.975400188665</v>
@@ -5312,16 +5312,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D15" t="n">
         <v>647.2053335549413</v>
@@ -5343,43 +5343,43 @@
         <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763706</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390064</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193541</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320202</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454337</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008793</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426848</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
         <v>2464.520220635548</v>
@@ -5388,7 +5388,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5434,52 +5434,52 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953302</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442069</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927034</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892253</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598118</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518532</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952191</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104706</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862234</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689061</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258587</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1163.95764238423</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>909.2731541783436</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413803</v>
+        <v>619.855984141383</v>
       </c>
       <c r="X16" t="n">
-        <v>391.866433243363</v>
+        <v>391.8664332433657</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001578</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089251</v>
+        <v>137.5579332089253</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>284.440165407421</v>
+        <v>451.8458144277737</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972692</v>
+        <v>1021.499046520309</v>
       </c>
       <c r="L17" t="n">
-        <v>1069.29375234568</v>
+        <v>1472.533259768719</v>
       </c>
       <c r="M17" t="n">
-        <v>1622.425187676621</v>
+        <v>2006.065164440645</v>
       </c>
       <c r="N17" t="n">
-        <v>2602.17745990327</v>
+        <v>2985.817436667293</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232727</v>
+        <v>3865.782086996749</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679675</v>
+        <v>4260.556453353928</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188664</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R17" t="n">
         <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973193</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161923</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>647.205333554941</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494856</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763705</v>
+        <v>341.4333205763706</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089886</v>
+        <v>205.0702204089887</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468562</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039389999</v>
+        <v>189.2383039390035</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193483</v>
+        <v>427.5025029193515</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320152</v>
+        <v>794.2006632320179</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454333</v>
+        <v>1241.476988454335</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008789</v>
+        <v>1715.000032008791</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426846</v>
+        <v>2125.961311426847</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.46090290295</v>
+        <v>2436.460902902951</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549551</v>
@@ -5619,7 +5619,7 @@
         <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839441</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839441</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839441</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
         <v>95.56103444839441</v>
@@ -5671,52 +5671,52 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953304</v>
+        <v>140.6836668953303</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442075</v>
+        <v>344.6708498442072</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927045</v>
+        <v>661.230648292704</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892254</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.79607059812</v>
+        <v>1346.796070598119</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518534</v>
+        <v>1646.125669518533</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952194</v>
+        <v>1878.733169952193</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.34346610471</v>
+        <v>1956.343466104708</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862238</v>
+        <v>1956.343466104708</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689064</v>
+        <v>1956.343466104708</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258591</v>
+        <v>1956.343466104708</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384234</v>
+        <v>1883.949150983575</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783472</v>
+        <v>1629.264662777688</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413867</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X19" t="n">
-        <v>391.8664332433693</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0738540998392</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="20">
@@ -5738,40 +5738,40 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551614</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001581</v>
+        <v>435.1415336001579</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089253</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>284.440165407421</v>
+        <v>451.8458144277737</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972692</v>
+        <v>1106.569146563074</v>
       </c>
       <c r="L20" t="n">
-        <v>1069.29375234568</v>
+        <v>1971.08796221643</v>
       </c>
       <c r="M20" t="n">
-        <v>1622.425187676621</v>
+        <v>2949.638265046261</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.17745990327</v>
+        <v>3496.417082105045</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232727</v>
+        <v>3999.389552984383</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679675</v>
+        <v>4394.163919341562</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188664</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R20" t="n">
         <v>4778.05172241972</v>
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973193</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161923</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.205333554941</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494856</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763705</v>
+        <v>341.4333205763706</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089886</v>
+        <v>205.0702204089887</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468562</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390124</v>
+        <v>189.2383039390035</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193483</v>
+        <v>427.5025029193515</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320152</v>
+        <v>794.2006632320179</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454333</v>
+        <v>1241.476988454335</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008789</v>
+        <v>1715.000032008791</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426846</v>
+        <v>2125.961311426847</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.46090290295</v>
+        <v>2436.460902902951</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549551</v>
@@ -5856,7 +5856,7 @@
         <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839441</v>
+        <v>729.2066409118285</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839441</v>
+        <v>560.2704579839216</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839441</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839441</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839441</v>
@@ -5908,52 +5908,52 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953304</v>
+        <v>140.6836668953303</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442075</v>
+        <v>344.6708498442072</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927045</v>
+        <v>661.230648292704</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892254</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.79607059812</v>
+        <v>1346.796070598119</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518534</v>
+        <v>1646.125669518533</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952194</v>
+        <v>1878.733169952193</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.34346610471</v>
+        <v>1956.343466104708</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862238</v>
+        <v>1956.343466104708</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689064</v>
+        <v>1956.343466104708</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258591</v>
+        <v>1903.424590863859</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384234</v>
+        <v>1614.321723989503</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783472</v>
+        <v>1359.637235783616</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413867</v>
+        <v>1359.637235783616</v>
       </c>
       <c r="X22" t="n">
-        <v>391.8664332433693</v>
+        <v>1131.647684885598</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0738540998392</v>
+        <v>910.8551057420682</v>
       </c>
     </row>
     <row r="23">
@@ -5969,46 +5969,46 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G23" t="n">
         <v>435.141533600158</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089254</v>
+        <v>137.5579332089253</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074205</v>
+        <v>451.8458144277737</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972679</v>
+        <v>1106.569146563074</v>
       </c>
       <c r="L23" t="n">
-        <v>1088.893283004699</v>
+        <v>1664.032360218081</v>
       </c>
       <c r="M23" t="n">
-        <v>1622.425187676625</v>
+        <v>2642.582663047911</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903273</v>
+        <v>3189.361480106695</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232729</v>
+        <v>3692.333950986033</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679676</v>
+        <v>4405.689038432981</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188664</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6066,22 +6066,22 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390054</v>
+        <v>189.2383039390035</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193532</v>
+        <v>427.5025029193515</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320195</v>
+        <v>794.2006632320179</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454336</v>
+        <v>1241.476988454335</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008792</v>
+        <v>1715.000032008791</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426848</v>
+        <v>2125.961311426847</v>
       </c>
       <c r="P24" t="n">
         <v>2436.460902902951</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>402.5293200614585</v>
+        <v>802.2515561796931</v>
       </c>
       <c r="C25" t="n">
-        <v>258.123084095208</v>
+        <v>657.8453202134425</v>
       </c>
       <c r="D25" t="n">
-        <v>238.7339241120191</v>
+        <v>532.2586277627631</v>
       </c>
       <c r="E25" t="n">
-        <v>238.7339241120191</v>
+        <v>408.8754811420263</v>
       </c>
       <c r="F25" t="n">
-        <v>238.7339241120191</v>
+        <v>286.5154806057723</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>143.3425909421475</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839441</v>
@@ -6151,7 +6151,7 @@
         <v>392.7544518784458</v>
       </c>
       <c r="L25" t="n">
-        <v>733.3560513440618</v>
+        <v>733.3560513440619</v>
       </c>
       <c r="M25" t="n">
         <v>1101.554897960731</v>
@@ -6160,16 +6160,16 @@
         <v>1467.005075683715</v>
       </c>
       <c r="O25" t="n">
-        <v>1790.376475621248</v>
+        <v>1790.376475621249</v>
       </c>
       <c r="P25" t="n">
-        <v>2047.025777072027</v>
+        <v>2047.025777072028</v>
       </c>
       <c r="Q25" t="n">
         <v>2148.677874241662</v>
       </c>
       <c r="R25" t="n">
-        <v>2083.377363960846</v>
+        <v>2083.377363960847</v>
       </c>
       <c r="S25" t="n">
         <v>1916.221426749329</v>
@@ -6187,10 +6187,10 @@
         <v>959.3700740482766</v>
       </c>
       <c r="X25" t="n">
-        <v>755.9104701119156</v>
+        <v>959.3700740482766</v>
       </c>
       <c r="Y25" t="n">
-        <v>559.6478379300419</v>
+        <v>959.3700740482766</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068006</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694703</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852251</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6312,16 +6312,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438193</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998425</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237712</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.15997273278</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319329</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D28" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942663</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
@@ -6382,7 +6382,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K28" t="n">
         <v>483.8255460380728</v>
@@ -6415,19 +6415,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6437,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068006</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694703</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852251</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6549,16 +6549,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438193</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998425</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237712</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.15997273278</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319312</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656807</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150013</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942646</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580106</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6640,31 +6640,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931272</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838284</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594053</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518749</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582388</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400514</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6689,37 +6689,37 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311171</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068006</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694703</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852251</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6786,16 +6786,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438193</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998425</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237712</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.15997273278</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
         <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,31 +6856,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.79828551875</v>
@@ -6901,7 +6901,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6911,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068006</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694703</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852251</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7023,16 +7023,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745233</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998425</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237712</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.15997273278</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,67 +7069,67 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319316</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150018</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931272</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.79828551875</v>
@@ -7138,7 +7138,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7184,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7257,10 +7257,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,7 +7327,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7336,7 +7336,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7497,7 +7497,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150022</v>
@@ -7555,10 +7555,10 @@
         <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,28 +7591,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>19.79750571619206</v>
+        <v>19.79750571619127</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>19.79750571619206</v>
+        <v>19.79750571618456</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9161,16 +9161,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>238.216018588573</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>19.79750571617569</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9179,13 +9179,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>19.79750571617569</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>77.35795430875928</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>19.79750571618325</v>
+        <v>107.504040814744</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>5.258016244624741e-12</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>5.258016244624741e-12</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>5.258016244624741e-12</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>5.258016244624741e-12</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -22550,13 +22550,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>224.3497545118845</v>
       </c>
       <c r="E2" t="n">
-        <v>353.7607358123479</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -22717,16 +22717,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22756,22 +22756,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.0742887270132</v>
+        <v>105.0742887270128</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23671,7 +23671,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.352420409838</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>105.0742887270105</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.0742887270069</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143207</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983792</v>
+        <v>96.35242040983798</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004715</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314418</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>214.5414662356916</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270069</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143207</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983792</v>
+        <v>96.35242040983798</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004715</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314418</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>167.1592627877288</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>105.1355571428155</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545293</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>121.1364005308914</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>120.4703674222809</v>
+        <v>73.16662649346543</v>
       </c>
       <c r="I25" t="n">
-        <v>72.06777291779818</v>
+        <v>72.06777291779824</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="26">
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1410612.948171853</v>
+        <v>1410612.948171854</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1410612.948171853</v>
+        <v>1410612.948171854</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1410612.948171853</v>
+        <v>1410612.948171854</v>
       </c>
     </row>
     <row r="9">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.078358309314353e-09</v>
       </c>
       <c r="G3" t="n">
-        <v>2.651701151989983e-09</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363066</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="J3" t="n">
-        <v>376527.1335735894</v>
+        <v>376527.1335735898</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363256</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>123255.8861912279</v>
+        <v>123255.886191228</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709177</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709162</v>
+        <v>21619.60799709174</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709167</v>
+        <v>21619.60799709173</v>
       </c>
       <c r="I4" t="n">
-        <v>29610.46726018526</v>
+        <v>29610.4672601852</v>
       </c>
       <c r="J4" t="n">
-        <v>12448.50789975169</v>
+        <v>12448.5078997516</v>
       </c>
       <c r="K4" t="n">
-        <v>12448.50789975169</v>
+        <v>12448.5078997516</v>
       </c>
       <c r="L4" t="n">
-        <v>12448.50789975169</v>
+        <v>12448.5078997516</v>
       </c>
       <c r="M4" t="n">
-        <v>12448.50789975169</v>
+        <v>12448.50789975161</v>
       </c>
       <c r="N4" t="n">
         <v>12448.50789975159</v>
       </c>
       <c r="O4" t="n">
-        <v>12448.50789975159</v>
+        <v>12448.5078997516</v>
       </c>
       <c r="P4" t="n">
-        <v>12448.5078997516</v>
+        <v>12448.50789975161</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26470,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371372</v>
+        <v>96383.51825371369</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371372</v>
+        <v>96383.51825371369</v>
       </c>
       <c r="I5" t="n">
         <v>98425.10428372197</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-796082.8434691818</v>
+        <v>-796384.852437256</v>
       </c>
       <c r="C6" t="n">
         <v>-275065.6744558392</v>
@@ -26528,34 +26528,34 @@
         <v>-275065.6744558392</v>
       </c>
       <c r="E6" t="n">
-        <v>-845380.540244212</v>
+        <v>-845447.7357344381</v>
       </c>
       <c r="F6" t="n">
-        <v>-118003.1262508055</v>
+        <v>-118070.3217410323</v>
       </c>
       <c r="G6" t="n">
-        <v>-118003.126250808</v>
+        <v>-118070.3217410312</v>
       </c>
       <c r="H6" t="n">
-        <v>-118003.1262508054</v>
+        <v>-118070.3217410312</v>
       </c>
       <c r="I6" t="n">
-        <v>-147463.2895375379</v>
+        <v>-147495.747102329</v>
       </c>
       <c r="J6" t="n">
-        <v>-492139.7573272565</v>
+        <v>-492139.7573272568</v>
       </c>
       <c r="K6" t="n">
-        <v>-115612.6237536671</v>
+        <v>-115612.623753667</v>
       </c>
       <c r="L6" t="n">
-        <v>-115612.6237536671</v>
+        <v>-115612.623753667</v>
       </c>
       <c r="M6" t="n">
-        <v>-245254.9385926118</v>
+        <v>-245254.9385926117</v>
       </c>
       <c r="N6" t="n">
-        <v>-135040.3417472996</v>
+        <v>-135040.3417472987</v>
       </c>
       <c r="O6" t="n">
         <v>-115612.623753667</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26735,40 +26735,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.7767005933</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593302</v>
+        <v>1089.776700593301</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593302</v>
+        <v>1089.776700593301</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.7767005933</v>
+        <v>1089.776700593301</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="N3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,22 +26966,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762118</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G3" t="n">
-        <v>3.410605131648481e-12</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.10680046739679e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>278.1987997483727</v>
+        <v>278.1987997483732</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503743</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>652.4826302492739</v>
+        <v>652.4826302492741</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503743</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503743</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>160.2923167905887</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>35.22335882333577</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>19.6607792729252</v>
+        <v>229.7861061337732</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>348.1798820387504</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>111.8998281280434</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27819,16 +27819,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>134.9863473781466</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>56.69292621882451</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,14 +27859,14 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>250.5850457095844</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>55.56994881277231</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>106.3208129736044</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>52.02592219651751</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681604</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844674</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974802</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953994</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003818</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623203</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490575006</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095035</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.151212309907</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746423</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781697</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563573</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806966</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451123</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345282</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.34404799750257</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798535</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752269</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026384</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138804</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233484</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837934</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970258</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002934</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987491</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905543</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238322</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898512</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462217</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.96517109943054</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311882</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742027</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297392</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702028</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098824</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316437</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883119</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086005</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802173</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895883</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712228</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553041</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112308</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780296</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681611</v>
+        <v>4.381011861681607</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844682</v>
+        <v>44.86703772844677</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974805</v>
+        <v>168.8989597974803</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054954</v>
+        <v>371.8329054953996</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003827</v>
+        <v>557.2811376003822</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623216</v>
+        <v>691.3565293623208</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490575019</v>
+        <v>769.2673490575011</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095048</v>
+        <v>781.7148990095039</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099083</v>
+        <v>738.1512123099075</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746433</v>
+        <v>629.9949819746427</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781704</v>
+        <v>473.09999467817</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563578</v>
+        <v>275.1987363563575</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806982</v>
+        <v>99.83230779806972</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451126</v>
+        <v>19.17787942451124</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345289</v>
+        <v>0.3504809489345285</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502574</v>
+        <v>2.344047997502571</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798538</v>
+        <v>22.63856881798536</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752282</v>
+        <v>80.70516131752274</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026319</v>
+        <v>221.4611312026355</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353169</v>
+        <v>378.5123470353165</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138812</v>
+        <v>508.9565619138806</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233493</v>
+        <v>593.9283018233488</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837943</v>
+        <v>609.6478166837937</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970268</v>
+        <v>557.7086478970261</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002941</v>
+        <v>447.6103584002936</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987496</v>
+        <v>299.2156706987493</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905546</v>
+        <v>145.5365940905544</v>
       </c>
       <c r="S18" t="n">
-        <v>43.5396634623833</v>
+        <v>43.53966346238325</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898528</v>
+        <v>9.448158375898517</v>
       </c>
       <c r="U18" t="n">
-        <v>0.154213684046222</v>
+        <v>0.1542136840462218</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430544</v>
+        <v>1.965171099430542</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311885</v>
+        <v>17.47215759311883</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742037</v>
+        <v>59.09805451742031</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297395</v>
+        <v>138.9375967297393</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702031</v>
+        <v>228.3171513702029</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098829</v>
+        <v>292.1673469098826</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316442</v>
+        <v>308.0495024316439</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883125</v>
+        <v>300.7247737883121</v>
       </c>
       <c r="O19" t="n">
-        <v>277.768002308601</v>
+        <v>277.7680023086007</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802177</v>
+        <v>237.6785118802174</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895886</v>
+        <v>164.5562817895884</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712242</v>
+        <v>88.36123870712234</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553047</v>
+        <v>34.24757270553043</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112322</v>
+        <v>8.396640152112314</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780298</v>
+        <v>0.1071911508780297</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681611</v>
+        <v>4.381011861681607</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844682</v>
+        <v>44.86703772844677</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974805</v>
+        <v>168.8989597974803</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054954</v>
+        <v>371.8329054953996</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003827</v>
+        <v>557.2811376003822</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623216</v>
+        <v>691.3565293623208</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490575019</v>
+        <v>769.2673490575011</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095048</v>
+        <v>781.7148990095039</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099083</v>
+        <v>738.1512123099075</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746433</v>
+        <v>629.9949819746427</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781704</v>
+        <v>473.09999467817</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563578</v>
+        <v>275.1987363563575</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806982</v>
+        <v>99.83230779806972</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451126</v>
+        <v>19.17787942451124</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345289</v>
+        <v>0.3504809489345285</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502574</v>
+        <v>2.344047997502571</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798538</v>
+        <v>22.63856881798536</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752282</v>
+        <v>80.70516131752274</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026355</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353043</v>
+        <v>378.5123470353165</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138812</v>
+        <v>508.9565619138806</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233493</v>
+        <v>593.9283018233488</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837943</v>
+        <v>609.6478166837937</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970268</v>
+        <v>557.7086478970261</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002941</v>
+        <v>447.6103584002936</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987496</v>
+        <v>299.2156706987493</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905546</v>
+        <v>145.5365940905544</v>
       </c>
       <c r="S21" t="n">
-        <v>43.5396634623833</v>
+        <v>43.53966346238325</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898528</v>
+        <v>9.448158375898517</v>
       </c>
       <c r="U21" t="n">
-        <v>0.154213684046222</v>
+        <v>0.1542136840462218</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430544</v>
+        <v>1.965171099430542</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311885</v>
+        <v>17.47215759311883</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742037</v>
+        <v>59.09805451742031</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297395</v>
+        <v>138.9375967297393</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702031</v>
+        <v>228.3171513702029</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098829</v>
+        <v>292.1673469098826</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316442</v>
+        <v>308.0495024316439</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883125</v>
+        <v>300.7247737883121</v>
       </c>
       <c r="O22" t="n">
-        <v>277.768002308601</v>
+        <v>277.7680023086007</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802177</v>
+        <v>237.6785118802174</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895886</v>
+        <v>164.5562817895884</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712242</v>
+        <v>88.36123870712234</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553047</v>
+        <v>34.24757270553043</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112322</v>
+        <v>8.396640152112314</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780298</v>
+        <v>0.1071911508780297</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681605</v>
+        <v>4.381011861681607</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844675</v>
+        <v>44.86703772844677</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974802</v>
+        <v>168.8989597974803</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953995</v>
+        <v>371.8329054953996</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600382</v>
+        <v>557.2811376003822</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623205</v>
+        <v>691.3565293623208</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490575007</v>
+        <v>769.2673490575011</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095036</v>
+        <v>781.7148990095039</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099071</v>
+        <v>738.1512123099075</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746424</v>
+        <v>629.9949819746427</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781698</v>
+        <v>473.09999467817</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563574</v>
+        <v>275.1987363563575</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806968</v>
+        <v>99.83230779806972</v>
       </c>
       <c r="T23" t="n">
         <v>19.17787942451124</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345284</v>
+        <v>0.3504809489345285</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.34404799750257</v>
+        <v>2.344047997502571</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798535</v>
+        <v>22.63856881798536</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752271</v>
+        <v>80.70516131752274</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026374</v>
+        <v>221.4611312026355</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353165</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138805</v>
+        <v>508.9565619138806</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233485</v>
+        <v>593.9283018233488</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837935</v>
+        <v>609.6478166837937</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970259</v>
+        <v>557.7086478970261</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002935</v>
+        <v>447.6103584002936</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987491</v>
+        <v>299.2156706987493</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905544</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238324</v>
+        <v>43.53966346238325</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898513</v>
+        <v>9.448158375898517</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462218</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430541</v>
+        <v>1.965171099430542</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311882</v>
+        <v>17.47215759311883</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742029</v>
+        <v>59.09805451742031</v>
       </c>
       <c r="J25" t="n">
-        <v>138.9375967297392</v>
+        <v>138.9375967297393</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702028</v>
+        <v>228.3171513702029</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098825</v>
+        <v>292.1673469098826</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316438</v>
+        <v>308.0495024316439</v>
       </c>
       <c r="N25" t="n">
-        <v>300.724773788312</v>
+        <v>300.7247737883121</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086006</v>
+        <v>277.7680023086007</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802173</v>
+        <v>237.6785118802174</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895883</v>
+        <v>164.5562817895884</v>
       </c>
       <c r="R25" t="n">
-        <v>88.3612387071223</v>
+        <v>88.36123870712234</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553042</v>
+        <v>34.24757270553043</v>
       </c>
       <c r="T25" t="n">
-        <v>8.39664015211231</v>
+        <v>8.396640152112314</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780296</v>
+        <v>0.1071911508780297</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.49939899634843</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135337</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.015579806723</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817571</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162555</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175669</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159419</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460021</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236501</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669218</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043723</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651526</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659447</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521098</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33032,31 +33032,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622683</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071779</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437238</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214694</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485288</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418559</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742435</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,46 +33093,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121568</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869269</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392042</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417312</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532763</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
-        <v>10.54013910099321</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
         <v>0.1345549672467221</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.49939899634843</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135337</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.015579806723</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817571</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162555</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175669</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159419</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460021</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236501</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669218</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043723</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651526</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659447</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521098</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33269,31 +33269,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622683</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071779</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437238</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214694</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485288</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418559</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742435</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,46 +33330,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121568</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869269</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392042</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417312</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532763</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
-        <v>10.54013910099321</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
         <v>0.1345549672467221</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.49939899634843</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135337</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.015579806723</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817571</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162555</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175669</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159419</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460021</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236501</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669218</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043723</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651526</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659447</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521098</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33506,31 +33506,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622683</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071779</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437238</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214694</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485288</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418559</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742435</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,46 +33567,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121568</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869269</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392042</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417312</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532763</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
-        <v>10.54013910099321</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
         <v>0.1345549672467221</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.49939899634843</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135337</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.015579806723</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817571</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162555</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175669</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159419</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460021</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236501</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669218</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043723</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651526</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659447</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521098</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33743,31 +33743,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862116</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832344</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437238</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214694</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485288</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418559</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742435</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,46 +33804,46 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121568</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869269</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392042</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417312</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532763</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
-        <v>10.54013910099321</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
         <v>0.1345549672467221</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33977,34 +33977,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34217,10 +34217,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>754.0002396832328</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>558.7186215464188</v>
+        <v>558.7186215464181</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687131</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554013</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923331</v>
       </c>
       <c r="M14" t="n">
-        <v>558.7186215464188</v>
+        <v>558.7186215464125</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248967</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509656</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908554</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636248</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152076</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597172</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340062</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013301</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004601</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525814</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127276</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306642</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443199</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701986</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934843</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675405</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226402</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451108</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789388</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687138</v>
+        <v>359.8836161407871</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554022</v>
+        <v>575.4073051439747</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923343</v>
+        <v>455.5901143923335</v>
       </c>
       <c r="M17" t="n">
-        <v>558.7186215464048</v>
+        <v>538.9211158302284</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248981</v>
+        <v>989.6487598248972</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509669</v>
+        <v>888.8531821509661</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908565</v>
+        <v>398.7619862193731</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636256</v>
+        <v>463.1092954636252</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152081</v>
+        <v>59.61319854222535</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453596518</v>
+        <v>94.62350453596879</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609579</v>
+        <v>240.6709080609575</v>
       </c>
       <c r="L18" t="n">
-        <v>370.402182134007</v>
+        <v>370.4021821340065</v>
       </c>
       <c r="M18" t="n">
-        <v>451.794267901331</v>
+        <v>451.7942679013304</v>
       </c>
       <c r="N18" t="n">
-        <v>478.306104600461</v>
+        <v>478.3061046004605</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525824</v>
+        <v>415.1124034525817</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859639</v>
+        <v>313.6359509859634</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127281</v>
+        <v>159.2338966127278</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306668</v>
+        <v>45.57841661306654</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443203</v>
+        <v>206.0476595443201</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170199</v>
+        <v>319.7573721701988</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934848</v>
+        <v>347.6333793934845</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675411</v>
+        <v>344.8569461675407</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226406</v>
+        <v>302.3531302226403</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451112</v>
+        <v>234.9570711451109</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789417</v>
+        <v>78.394238537894</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687138</v>
+        <v>359.8836161407871</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554022</v>
+        <v>661.3366991265664</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923343</v>
+        <v>873.251328942784</v>
       </c>
       <c r="M20" t="n">
-        <v>558.7186215464048</v>
+        <v>988.4346493230609</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248981</v>
+        <v>552.3018354129131</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509669</v>
+        <v>508.0530008882207</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908565</v>
+        <v>398.7619862193731</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636256</v>
+        <v>328.1522591124798</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152081</v>
+        <v>59.61319854222535</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597779</v>
+        <v>94.62350453596879</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609453</v>
+        <v>240.6709080609575</v>
       </c>
       <c r="L21" t="n">
-        <v>370.402182134007</v>
+        <v>370.4021821340065</v>
       </c>
       <c r="M21" t="n">
-        <v>451.794267901331</v>
+        <v>451.7942679013304</v>
       </c>
       <c r="N21" t="n">
-        <v>478.306104600461</v>
+        <v>478.3061046004605</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525824</v>
+        <v>415.1124034525817</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859639</v>
+        <v>313.6359509859634</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127281</v>
+        <v>159.2338966127278</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306668</v>
+        <v>45.57841661306654</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443203</v>
+        <v>206.0476595443201</v>
       </c>
       <c r="L22" t="n">
-        <v>319.757372170199</v>
+        <v>319.7573721701988</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934848</v>
+        <v>347.6333793934845</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675411</v>
+        <v>344.8569461675407</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226406</v>
+        <v>302.3531302226403</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451112</v>
+        <v>234.9570711451109</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789417</v>
+        <v>78.394238537894</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687132</v>
+        <v>359.8836161407871</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554014</v>
+        <v>661.3366991265664</v>
       </c>
       <c r="L23" t="n">
-        <v>475.3876201085166</v>
+        <v>563.0941552070775</v>
       </c>
       <c r="M23" t="n">
-        <v>538.921115830228</v>
+        <v>988.4346493230609</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248968</v>
+        <v>552.3018354129131</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509657</v>
+        <v>508.0530008882207</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908556</v>
+        <v>720.5606943908558</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.109295463625</v>
+        <v>250.7943048037205</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152077</v>
+        <v>125.3296184152078</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597075</v>
+        <v>94.62350453596879</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609575</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340063</v>
+        <v>370.4021821340065</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013302</v>
+        <v>451.7942679013304</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004602</v>
+        <v>478.3061046004605</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525815</v>
+        <v>415.1124034525817</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859632</v>
+        <v>313.6359509859634</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127276</v>
+        <v>159.2338966127278</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,13 +36519,13 @@
         <v>230.3323070363598</v>
       </c>
       <c r="L25" t="n">
-        <v>344.0420196622384</v>
+        <v>344.0420196622385</v>
       </c>
       <c r="M25" t="n">
         <v>371.9180268855242</v>
       </c>
       <c r="N25" t="n">
-        <v>369.1415936595804</v>
+        <v>369.1415936595805</v>
       </c>
       <c r="O25" t="n">
         <v>326.6377777146801</v>
@@ -36534,7 +36534,7 @@
         <v>259.2417186371507</v>
       </c>
       <c r="Q25" t="n">
-        <v>102.6788860299338</v>
+        <v>102.6788860299337</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317114</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367765</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462683</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902942</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193509</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243154</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924723</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902454</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402501</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238447</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992794</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071392</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625073</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789196</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36759,19 +36759,19 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
-        <v>319.9164207986645</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317114</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367765</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462683</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902942</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193509</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243154</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924723</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902454</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402501</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238447</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992794</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071392</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625073</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789196</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016745</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.626661811171</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986645</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317114</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396416</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367765</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462683</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902942</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193509</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243154</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924723</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902454</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402501</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238447</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992794</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071392</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625073</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789196</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016745</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.626661811171</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986645</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317114</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367765</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462683</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902942</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193509</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243154</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924723</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902454</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641933</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275999012</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992794</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071392</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625073</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789196</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016745</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.626661811171</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986645</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>622.6585275998996</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
